--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -659,13 +659,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="44.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="38.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.43357142857143" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="32.86214285714286" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="12.43357142857143" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="11" width="12.43357142857143" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="44.005" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="8" width="38.57642857142857" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="12.576428571428572" collapsed="true"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -808,12 +808,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="41.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="41.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="41.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="16.576428571428572" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="27.862142857142857" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="41.71928571428572" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="41.71928571428572" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="13.719285714285713" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="8" width="41.86214285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
